--- a/data/data vali ht23.xlsx
+++ b/data/data vali ht23.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="466">
   <si>
     <t xml:space="preserve">alias</t>
   </si>
@@ -374,12 +374,6 @@
   </si>
   <si>
     <t xml:space="preserve">vs44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73a0acbf4b3f49e8b230141cf2ecf27e</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vs186</t>
   </si>
   <si>
     <t xml:space="preserve">482a73173b934bc79b28f387ecfcb971</t>
@@ -1656,13 +1650,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H275"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A247" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E69" activeCellId="0" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.49"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3310,13 +3307,13 @@
         <v>119</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>28</v>
@@ -3333,16 +3330,16 @@
         <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>156</v>
+        <v>230</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>28</v>
@@ -3356,28 +3353,28 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C66" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" s="1" t="n">
-        <v>1989</v>
+        <v>7</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>2002</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3385,51 +3382,51 @@
         <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1" t="n">
         <v>2002</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" s="1" t="n">
-        <v>2002</v>
+        <v>86</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>1993</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3442,20 +3439,20 @@
       <c r="C69" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" s="0" t="n">
-        <v>1993</v>
+        <v>39</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>1999</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3463,21 +3460,21 @@
         <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G70" s="1" t="n">
+      <c r="G70" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H70" s="1" t="n">
@@ -3486,11 +3483,11 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C71" s="1" t="s">
         <v>14</v>
       </c>
@@ -3498,16 +3495,16 @@
         <v>0</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G71" s="0" t="n">
+      <c r="G71" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>1999</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3524,16 +3521,16 @@
         <v>0</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="1" t="n">
+      <c r="G72" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>1984</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,22 +3541,22 @@
         <v>134</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="F73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="0" t="s">
         <v>11</v>
       </c>
       <c r="G73" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H73" s="1" t="n">
-        <v>1990</v>
+      <c r="H73" s="0" t="n">
+        <v>1989</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3567,51 +3564,51 @@
         <v>135</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="F74" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G74" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H74" s="0" t="n">
+      <c r="H74" s="1" t="n">
         <v>1989</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C75" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G75" s="0" t="n">
+      <c r="G75" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>1989</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3628,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>11</v>
@@ -3637,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3654,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>11</v>
@@ -3663,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>1995</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3671,16 +3668,16 @@
         <v>142</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>11</v>
@@ -3694,19 +3691,19 @@
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C79" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>11</v>
@@ -3715,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>1961</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3726,13 +3723,13 @@
         <v>146</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>11</v>
@@ -3741,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>1997</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3755,19 +3752,19 @@
         <v>10</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G81" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>1993</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3775,16 +3772,16 @@
         <v>149</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>28</v>
@@ -3798,28 +3795,28 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="C83" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" s="1" t="n">
-        <v>1988</v>
+        <v>17</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>1982</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3830,74 +3827,74 @@
         <v>153</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E84" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H84" s="0" t="n">
-        <v>1982</v>
+        <v>0</v>
+      </c>
+      <c r="E84" s="6" t="n">
+        <v>136</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>1996</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="C85" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" s="6" t="n">
-        <v>136</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" s="0" t="n">
         <v>1996</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86" s="0" t="n">
-        <v>1996</v>
+        <v>6</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1" t="n">
+        <v>1998</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3914,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>28</v>
@@ -3923,7 +3920,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="1" t="n">
-        <v>1998</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3937,10 +3934,10 @@
         <v>10</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>28</v>
@@ -3949,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="1" t="n">
-        <v>1973</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3957,16 +3954,16 @@
         <v>161</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>28</v>
@@ -3980,19 +3977,19 @@
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="C90" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>28</v>
@@ -4009,16 +4006,16 @@
         <v>164</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>28</v>
@@ -4031,20 +4028,20 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="C92" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>28</v>
@@ -4053,33 +4050,33 @@
         <v>1</v>
       </c>
       <c r="H92" s="1" t="n">
-        <v>1985</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G93" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H93" s="1" t="n">
-        <v>1997</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4090,22 +4087,22 @@
         <v>170</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H94" s="1" t="n">
-        <v>1987</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4113,16 +4110,16 @@
         <v>171</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>11</v>
@@ -4136,28 +4133,28 @@
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="C96" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D96" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G96" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>2001</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4171,10 +4168,10 @@
         <v>10</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>28</v>
@@ -4183,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="1" t="n">
-        <v>1992</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4191,16 +4188,16 @@
         <v>176</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>28</v>
@@ -4214,19 +4211,19 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="C99" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>28</v>
@@ -4235,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>1987</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4243,16 +4240,16 @@
         <v>179</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>28</v>
@@ -4266,28 +4263,28 @@
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="C101" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G101" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H101" s="1" t="n">
-        <v>1973</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4295,16 +4292,16 @@
         <v>182</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>11</v>
@@ -4318,19 +4315,19 @@
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="C103" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" s="1" t="n">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>11</v>
@@ -4339,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="H103" s="1" t="n">
-        <v>1989</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4347,16 +4344,16 @@
         <v>185</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" s="1" t="n">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>11</v>
@@ -4370,28 +4367,28 @@
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="C105" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" s="1" t="n">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G105" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1" t="n">
-        <v>1971</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4402,39 +4399,39 @@
         <v>189</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" s="1" t="n">
-        <v>208</v>
+        <v>123</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G106" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" s="1" t="n">
-        <v>1999</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" s="1" t="n">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>11</v>
@@ -4447,12 +4444,12 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="C108" s="1" t="s">
         <v>14</v>
       </c>
@@ -4460,16 +4457,16 @@
         <v>0</v>
       </c>
       <c r="E108" s="1" t="n">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G108" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H108" s="1" t="n">
-        <v>1990</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4486,16 +4483,16 @@
         <v>0</v>
       </c>
       <c r="E109" s="1" t="n">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G109" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H109" s="1" t="n">
-        <v>2004</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4506,13 +4503,13 @@
         <v>196</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D110" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E110" s="1" t="n">
-        <v>223</v>
+        <v>88</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>11</v>
@@ -4521,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="H110" s="1" t="n">
-        <v>1991</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4529,16 +4526,16 @@
         <v>197</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" s="1" t="n">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>11</v>
@@ -4552,19 +4549,19 @@
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="C112" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112" s="1" t="n">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>11</v>
@@ -4573,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="H112" s="1" t="n">
-        <v>1978</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4584,13 +4581,13 @@
         <v>201</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D113" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E113" s="1" t="n">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>11</v>
@@ -4599,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="H113" s="1" t="n">
-        <v>1990</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4607,16 +4604,16 @@
         <v>202</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" s="1" t="n">
-        <v>28</v>
+        <v>221</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>11</v>
@@ -4630,19 +4627,19 @@
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="C115" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" s="1" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>11</v>
@@ -4651,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="H115" s="1" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4662,13 +4659,13 @@
         <v>206</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" s="1" t="n">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>11</v>
@@ -4677,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="H116" s="1" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4685,16 +4682,16 @@
         <v>207</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" s="1" t="n">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>11</v>
@@ -4708,19 +4705,19 @@
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="C118" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D118" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E118" s="1" t="n">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>11</v>
@@ -4729,26 +4726,26 @@
         <v>1</v>
       </c>
       <c r="H118" s="1" t="n">
-        <v>2005</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="F119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E119" s="3" t="n">
+        <v>154</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G119" s="1" t="n">
@@ -4760,7 +4757,7 @@
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>211</v>
@@ -4769,19 +4766,19 @@
         <v>14</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E120" s="3" t="n">
-        <v>154</v>
-      </c>
-      <c r="F120" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G120" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H120" s="1" t="n">
-        <v>1975</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4792,22 +4789,22 @@
         <v>213</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H121" s="1" t="n">
-        <v>2003</v>
+        <v>25</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <v>1990</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4821,19 +4818,19 @@
         <v>10</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="F122" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G122" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H122" s="0" t="n">
-        <v>1990</v>
+        <v>62</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" s="1" t="n">
+        <v>1969</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4850,16 +4847,16 @@
         <v>0</v>
       </c>
       <c r="E123" s="1" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G123" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H123" s="1" t="n">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4867,16 +4864,16 @@
         <v>218</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" s="1" t="n">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>28</v>
@@ -4890,28 +4887,28 @@
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="C125" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D125" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E125" s="1" t="n">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G125" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125" s="1" t="n">
-        <v>1968</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4919,16 +4916,16 @@
         <v>221</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" s="1" t="n">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>28</v>
@@ -4942,28 +4939,28 @@
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="C127" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E127" s="1" t="n">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G127" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" s="1" t="n">
-        <v>1977</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4971,16 +4968,16 @@
         <v>224</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E128" s="1" t="n">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>11</v>
@@ -4994,19 +4991,19 @@
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E129" s="1" t="n">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>11</v>
@@ -5015,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="H129" s="1" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5023,16 +5020,16 @@
         <v>227</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E130" s="1" t="n">
-        <v>172</v>
+        <v>1</v>
+      </c>
+      <c r="E130" s="3" t="n">
+        <v>242</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>11</v>
@@ -5046,19 +5043,19 @@
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>14</v>
+      <c r="C131" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D131" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E131" s="3" t="n">
-        <v>242</v>
+      <c r="E131" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>11</v>
@@ -5067,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="H131" s="1" t="n">
-        <v>2002</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5075,16 +5072,16 @@
         <v>230</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132" s="1" t="n">
-        <v>43</v>
+        <v>235</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>11</v>
@@ -5098,19 +5095,19 @@
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="C133" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D133" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E133" s="1" t="n">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>11</v>
@@ -5119,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="H133" s="1" t="n">
-        <v>1989</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5127,16 +5124,16 @@
         <v>233</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" s="1" t="n">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>11</v>
@@ -5150,28 +5147,28 @@
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="C135" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" s="1" t="n">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G135" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H135" s="1" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5179,16 +5176,16 @@
         <v>236</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E136" s="1" t="n">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>28</v>
@@ -5202,28 +5199,28 @@
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="C137" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E137" s="1" t="n">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G137" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137" s="1" t="n">
-        <v>1997</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5231,22 +5228,22 @@
         <v>239</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138" s="1" t="n">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G138" s="1" t="n">
-        <v>0</v>
+      <c r="G138" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H138" s="1" t="n">
         <v>1965</v>
@@ -5254,28 +5251,28 @@
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="C139" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" s="1" t="n">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G139" s="0" t="n">
+      <c r="G139" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H139" s="1" t="n">
-        <v>1965</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5283,16 +5280,16 @@
         <v>242</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140" s="1" t="n">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>28</v>
@@ -5306,11 +5303,11 @@
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="C141" s="1" t="s">
         <v>14</v>
       </c>
@@ -5318,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="E141" s="1" t="n">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>28</v>
@@ -5327,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="H141" s="1" t="n">
-        <v>1970</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5344,16 +5341,16 @@
         <v>0</v>
       </c>
       <c r="E142" s="1" t="n">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G142" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H142" s="1" t="n">
-        <v>1983</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5364,13 +5361,13 @@
         <v>248</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D143" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E143" s="1" t="n">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>11</v>
@@ -5379,7 +5376,7 @@
         <v>1</v>
       </c>
       <c r="H143" s="1" t="n">
-        <v>1990</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5393,19 +5390,19 @@
         <v>10</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H144" s="1" t="n">
-        <v>1997</v>
+        <v>17</v>
+      </c>
+      <c r="F144" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" s="0" t="n">
+        <v>1992</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,51 +5410,51 @@
         <v>251</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="F145" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G145" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H145" s="0" t="n">
+      <c r="H145" s="1" t="n">
         <v>1992</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="C146" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D146" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E146" s="1" t="n">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G146" s="0" t="n">
+      <c r="G146" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H146" s="1" t="n">
-        <v>1992</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5465,21 +5462,21 @@
         <v>254</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" s="1" t="n">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G147" s="1" t="n">
+      <c r="G147" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H147" s="1" t="n">
@@ -5488,28 +5485,28 @@
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="C148" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E148" s="1" t="n">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G148" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H148" s="1" t="n">
-        <v>1997</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5526,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="1" t="n">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>28</v>
@@ -5535,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="H149" s="1" t="n">
-        <v>1984</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5552,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="E150" s="1" t="n">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>28</v>
@@ -5561,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="H150" s="1" t="n">
-        <v>1989</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5572,22 +5569,22 @@
         <v>262</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D151" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E151" s="1" t="n">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G151" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G151" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H151" s="1" t="n">
-        <v>1996</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5595,21 +5592,21 @@
         <v>263</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" s="1" t="n">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G152" s="1" t="n">
+      <c r="G152" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H152" s="1" t="n">
@@ -5618,28 +5615,28 @@
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="C153" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D153" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E153" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="F153" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="G153" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H153" s="1" t="n">
-        <v>2001</v>
+      <c r="H153" s="0" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5647,34 +5644,34 @@
         <v>266</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="F154" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G154" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H154" s="0" t="n">
+      <c r="H154" s="1" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="C155" s="1" t="s">
         <v>14</v>
       </c>
@@ -5682,16 +5679,16 @@
         <v>0</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G155" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>2000</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5702,74 +5699,74 @@
         <v>270</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D156" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G156" s="0" t="n">
+      <c r="G156" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H156" s="1" t="n">
-        <v>1994</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="0" t="s">
         <v>271</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>272</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D157" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E157" s="1" t="n">
-        <v>102</v>
+      <c r="E157" s="8" t="n">
+        <v>237</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G157" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157" s="1" t="n">
-        <v>1990</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="A158" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>274</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E158" s="8" t="n">
-        <v>237</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H158" s="1" t="n">
-        <v>1969</v>
+        <v>1</v>
+      </c>
+      <c r="E158" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="F158" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" s="0" t="n">
+        <v>1984</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5785,17 +5782,17 @@
       <c r="D159" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E159" s="3" t="n">
-        <v>110</v>
-      </c>
-      <c r="F159" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H159" s="0" t="n">
-        <v>1984</v>
+      <c r="E159" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G159" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" s="1" t="n">
+        <v>1990</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5803,21 +5800,21 @@
         <v>277</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160" s="1" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G160" s="1" t="n">
+      <c r="G160" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H160" s="1" t="n">
@@ -5826,28 +5823,28 @@
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="C161" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="F161" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F161" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G161" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H161" s="1" t="n">
-        <v>1990</v>
+      <c r="H161" s="0" t="n">
+        <v>2004</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5858,22 +5855,22 @@
         <v>281</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D162" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E162" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="F162" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G162" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H162" s="0" t="n">
-        <v>2004</v>
+        <v>73</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G162" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H162" s="1" t="n">
+        <v>1992</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5881,21 +5878,21 @@
         <v>282</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163" s="1" t="n">
-        <v>73</v>
+        <v>226</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G163" s="1" t="n">
+      <c r="G163" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H163" s="1" t="n">
@@ -5904,11 +5901,11 @@
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="C164" s="1" t="s">
         <v>14</v>
       </c>
@@ -5916,16 +5913,16 @@
         <v>0</v>
       </c>
       <c r="E164" s="1" t="n">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G164" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H164" s="1" t="n">
-        <v>1992</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5935,23 +5932,23 @@
       <c r="B165" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>14</v>
+      <c r="C165" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D165" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E165" s="1" t="n">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G165" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H165" s="1" t="n">
-        <v>1999</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5959,7 +5956,7 @@
         <v>287</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>10</v>
@@ -5968,42 +5965,42 @@
         <v>0</v>
       </c>
       <c r="E166" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G166" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H166" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="F166" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G166" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" s="0" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C167" s="7" t="s">
+      <c r="C167" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="F167" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G167" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H167" s="0" t="n">
-        <v>1991</v>
+        <v>85</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" s="1" t="n">
+        <v>1999</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6011,21 +6008,21 @@
         <v>290</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168" s="1" t="n">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G168" s="1" t="n">
+      <c r="G168" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H168" s="1" t="n">
@@ -6034,11 +6031,11 @@
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="C169" s="1" t="s">
         <v>14</v>
       </c>
@@ -6046,16 +6043,16 @@
         <v>0</v>
       </c>
       <c r="E169" s="1" t="n">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G169" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H169" s="1" t="n">
-        <v>1999</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6072,16 +6069,16 @@
         <v>0</v>
       </c>
       <c r="E170" s="1" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G170" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H170" s="1" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6092,13 +6089,13 @@
         <v>296</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D171" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" s="1" t="n">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>11</v>
@@ -6107,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="H171" s="1" t="n">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6115,16 +6112,16 @@
         <v>297</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172" s="1" t="n">
-        <v>84</v>
+        <v>209</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>11</v>
@@ -6138,28 +6135,28 @@
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="C173" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D173" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E173" s="1" t="n">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G173" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H173" s="1" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6170,22 +6167,22 @@
         <v>301</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D174" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G174" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H174" s="1" t="n">
-        <v>2005</v>
+        <v>1</v>
+      </c>
+      <c r="E174" s="3" t="n">
+        <v>243</v>
+      </c>
+      <c r="F174" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G174" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H174" s="0" t="n">
+        <v>1997</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6199,19 +6196,19 @@
         <v>14</v>
       </c>
       <c r="D175" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" s="3" t="n">
-        <v>243</v>
-      </c>
-      <c r="F175" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G175" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H175" s="0" t="n">
-        <v>1997</v>
+        <v>0</v>
+      </c>
+      <c r="E175" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" s="1" t="n">
+        <v>1964</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6222,22 +6219,22 @@
         <v>305</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D176" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E176" s="1" t="n">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G176" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H176" s="1" t="n">
-        <v>1964</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6245,16 +6242,16 @@
         <v>306</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D177" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E177" s="1" t="n">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>28</v>
@@ -6268,28 +6265,28 @@
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="C178" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D178" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E178" s="1" t="n">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G178" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H178" s="1" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6297,16 +6294,16 @@
         <v>309</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D179" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179" s="1" t="n">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>11</v>
@@ -6320,19 +6317,19 @@
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="C180" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D180" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E180" s="1" t="n">
-        <v>223</v>
+        <v>122</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>11</v>
@@ -6341,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="H180" s="1" t="n">
-        <v>1988</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6349,21 +6346,21 @@
         <v>312</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D181" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G181" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="F181" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G181" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H181" s="1" t="n">
@@ -6372,11 +6369,11 @@
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="C182" s="1" t="s">
         <v>14</v>
       </c>
@@ -6384,16 +6381,16 @@
         <v>0</v>
       </c>
       <c r="E182" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="F182" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G182" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G182" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H182" s="1" t="n">
-        <v>1992</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6404,22 +6401,22 @@
         <v>316</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D183" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E183" s="1" t="n">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G183" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H183" s="1" t="n">
-        <v>1994</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6427,16 +6424,16 @@
         <v>317</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D184" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" s="1" t="n">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>28</v>
@@ -6450,28 +6447,28 @@
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="C185" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D185" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185" s="1" t="n">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G185" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G185" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H185" s="1" t="n">
-        <v>1996</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6482,22 +6479,22 @@
         <v>321</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D186" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E186" s="1" t="n">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G186" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G186" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H186" s="1" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6505,21 +6502,21 @@
         <v>322</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D187" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" s="1" t="n">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G187" s="1" t="n">
+      <c r="G187" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H187" s="1" t="n">
@@ -6528,28 +6525,28 @@
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="C188" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D188" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E188" s="1" t="n">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G188" s="0" t="n">
+      <c r="G188" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H188" s="1" t="n">
-        <v>2002</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6557,21 +6554,21 @@
         <v>325</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D189" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E189" s="1" t="n">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G189" s="1" t="n">
+      <c r="G189" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H189" s="1" t="n">
@@ -6580,79 +6577,79 @@
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="C190" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D190" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E190" s="1" t="n">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G190" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G190" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H190" s="1" t="n">
-        <v>1994</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="0" t="s">
         <v>328</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D191" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" s="8" t="n">
+        <v>245</v>
+      </c>
+      <c r="F191" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G191" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H191" s="0" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D191" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E191" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G191" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H191" s="1" t="n">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+      <c r="B192" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="C192" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D192" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E192" s="8" t="n">
-        <v>245</v>
-      </c>
-      <c r="F192" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G192" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H192" s="0" t="n">
+      <c r="E192" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G192" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H192" s="4" t="n">
         <v>1990</v>
       </c>
     </row>
@@ -6667,19 +6664,19 @@
         <v>10</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E193" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="F193" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G193" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H193" s="4" t="n">
-        <v>1990</v>
+        <v>70</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H193" s="1" t="n">
+        <v>1995</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6696,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="E194" s="1" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>11</v>
@@ -6705,50 +6702,50 @@
         <v>1</v>
       </c>
       <c r="H194" s="1" t="n">
-        <v>1995</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="C195" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D195" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195" s="1" t="n">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G195" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H195" s="1" t="n">
-        <v>1992</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D196" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" s="1" t="n">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>28</v>
@@ -6762,11 +6759,11 @@
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="C197" s="1" t="s">
         <v>14</v>
       </c>
@@ -6774,16 +6771,16 @@
         <v>0</v>
       </c>
       <c r="E197" s="1" t="n">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G197" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H197" s="1" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6794,13 +6791,13 @@
         <v>340</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D198" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198" s="1" t="n">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>11</v>
@@ -6809,7 +6806,7 @@
         <v>1</v>
       </c>
       <c r="H198" s="1" t="n">
-        <v>1996</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6817,16 +6814,16 @@
         <v>341</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D199" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199" s="1" t="n">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>11</v>
@@ -6840,28 +6837,28 @@
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="C200" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D200" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E200" s="1" t="n">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G200" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200" s="1" t="n">
-        <v>1975</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6869,55 +6866,55 @@
         <v>344</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D201" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E201" s="1" t="n">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G201" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201" s="1" t="n">
         <v>2001</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="C202" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D202" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E202" s="1" t="n">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G202" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H202" s="1" t="n">
-        <v>2001</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="5" t="s">
+      <c r="A203" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -6930,16 +6927,16 @@
         <v>0</v>
       </c>
       <c r="E203" s="1" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G203" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H203" s="1" t="n">
-        <v>1986</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6950,22 +6947,22 @@
         <v>350</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D204" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E204" s="1" t="n">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G204" s="1" t="n">
+      <c r="G204" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H204" s="1" t="n">
-        <v>1951</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6976,22 +6973,22 @@
         <v>352</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D205" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E205" s="1" t="n">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G205" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G205" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H205" s="1" t="n">
-        <v>1993</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6999,21 +6996,21 @@
         <v>353</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D206" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E206" s="1" t="n">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G206" s="1" t="n">
+      <c r="G206" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H206" s="1" t="n">
@@ -7022,28 +7019,28 @@
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="C207" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D207" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207" s="1" t="n">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G207" s="0" t="n">
+      <c r="G207" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H207" s="1" t="n">
-        <v>1967</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7060,16 +7057,16 @@
         <v>0</v>
       </c>
       <c r="E208" s="1" t="n">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G208" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H208" s="1" t="n">
-        <v>1996</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7077,16 +7074,16 @@
         <v>358</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D209" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E209" s="1" t="n">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>11</v>
@@ -7100,28 +7097,28 @@
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="C210" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D210" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E210" s="1" t="n">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G210" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H210" s="1" t="n">
-        <v>1964</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7132,22 +7129,22 @@
         <v>362</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D211" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E211" s="1" t="n">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G211" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H211" s="1" t="n">
-        <v>1971</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7158,13 +7155,13 @@
         <v>364</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D212" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E212" s="1" t="n">
-        <v>244</v>
+        <v>48</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>11</v>
@@ -7173,7 +7170,7 @@
         <v>1</v>
       </c>
       <c r="H212" s="1" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7190,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="E213" s="1" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>11</v>
@@ -7199,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="H213" s="1" t="n">
-        <v>1986</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7207,16 +7204,16 @@
         <v>367</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D214" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214" s="1" t="n">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>11</v>
@@ -7230,19 +7227,19 @@
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>368</v>
-      </c>
       <c r="C215" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D215" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E215" s="1" t="n">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>11</v>
@@ -7251,7 +7248,7 @@
         <v>1</v>
       </c>
       <c r="H215" s="1" t="n">
-        <v>1964</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7259,16 +7256,16 @@
         <v>370</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D216" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216" s="1" t="n">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>11</v>
@@ -7282,28 +7279,28 @@
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="C217" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D217" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E217" s="1" t="n">
-        <v>224</v>
+        <v>13</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G217" s="1" t="n">
+      <c r="G217" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H217" s="1" t="n">
-        <v>1979</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7311,21 +7308,21 @@
         <v>373</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D218" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E218" s="1" t="n">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G218" s="0" t="n">
+      <c r="G218" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H218" s="1" t="n">
@@ -7334,19 +7331,19 @@
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="C219" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D219" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E219" s="1" t="n">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>11</v>
@@ -7355,7 +7352,7 @@
         <v>1</v>
       </c>
       <c r="H219" s="1" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7363,16 +7360,16 @@
         <v>376</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D220" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E220" s="1" t="n">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>11</v>
@@ -7386,28 +7383,28 @@
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="C221" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D221" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E221" s="1" t="n">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G221" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221" s="1" t="n">
-        <v>1999</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7424,16 +7421,16 @@
         <v>0</v>
       </c>
       <c r="E222" s="1" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G222" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222" s="1" t="n">
-        <v>1994</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7450,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="E223" s="1" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>11</v>
@@ -7459,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="H223" s="1" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7473,18 +7470,18 @@
         <v>10</v>
       </c>
       <c r="D224" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E224" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G224" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H224" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="F224" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G224" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" s="0" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -7499,19 +7496,19 @@
         <v>10</v>
       </c>
       <c r="D225" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E225" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="F225" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G225" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H225" s="0" t="n">
-        <v>2000</v>
+        <v>36</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G225" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H225" s="1" t="n">
+        <v>1974</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7519,16 +7516,16 @@
         <v>387</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D226" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226" s="1" t="n">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>11</v>
@@ -7542,19 +7539,19 @@
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="C227" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D227" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E227" s="1" t="n">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>11</v>
@@ -7563,7 +7560,7 @@
         <v>1</v>
       </c>
       <c r="H227" s="1" t="n">
-        <v>1974</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7571,16 +7568,16 @@
         <v>390</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D228" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E228" s="1" t="n">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>11</v>
@@ -7594,19 +7591,19 @@
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="C229" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D229" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E229" s="1" t="n">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>11</v>
@@ -7615,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="H229" s="1" t="n">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7632,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="E230" s="1" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>11</v>
@@ -7641,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="H230" s="1" t="n">
-        <v>1975</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7655,19 +7652,19 @@
         <v>10</v>
       </c>
       <c r="D231" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E231" s="1" t="n">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G231" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231" s="1" t="n">
-        <v>1998</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7675,16 +7672,16 @@
         <v>397</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D232" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E232" s="1" t="n">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>28</v>
@@ -7698,28 +7695,28 @@
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="C233" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D233" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E233" s="1" t="n">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G233" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233" s="1" t="n">
-        <v>1989</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7727,16 +7724,16 @@
         <v>400</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D234" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E234" s="1" t="n">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>28</v>
@@ -7750,28 +7747,28 @@
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="C235" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D235" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E235" s="1" t="n">
-        <v>229</v>
+        <v>61</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G235" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H235" s="1" t="n">
-        <v>1967</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7779,16 +7776,16 @@
         <v>403</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D236" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E236" s="1" t="n">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>11</v>
@@ -7802,28 +7799,28 @@
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="C237" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D237" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E237" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G237" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H237" s="1" t="n">
-        <v>1946</v>
+        <v>238</v>
+      </c>
+      <c r="F237" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G237" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H237" s="0" t="n">
+        <v>1997</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7834,22 +7831,22 @@
         <v>407</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D238" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E238" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="F238" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G238" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H238" s="0" t="n">
-        <v>1997</v>
+        <v>21</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G238" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H238" s="1" t="n">
+        <v>1992</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7857,16 +7854,16 @@
         <v>408</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D239" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E239" s="1" t="n">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>28</v>
@@ -7880,19 +7877,19 @@
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="C240" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D240" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E240" s="1" t="n">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>28</v>
@@ -7901,7 +7898,7 @@
         <v>1</v>
       </c>
       <c r="H240" s="1" t="n">
-        <v>1992</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7912,13 +7909,13 @@
         <v>412</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D241" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E241" s="1" t="n">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>28</v>
@@ -7927,7 +7924,7 @@
         <v>1</v>
       </c>
       <c r="H241" s="1" t="n">
-        <v>1990</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7938,13 +7935,13 @@
         <v>414</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D242" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E242" s="1" t="n">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>28</v>
@@ -7953,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="H242" s="1" t="n">
-        <v>1998</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7964,22 +7961,22 @@
         <v>416</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D243" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E243" s="1" t="n">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G243" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H243" s="1" t="n">
-        <v>1969</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7987,21 +7984,21 @@
         <v>417</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D244" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E244" s="1" t="n">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G244" s="1" t="n">
+      <c r="G244" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H244" s="1" t="n">
@@ -8010,28 +8007,28 @@
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="C245" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D245" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E245" s="1" t="n">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G245" s="0" t="n">
+      <c r="G245" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H245" s="1" t="n">
-        <v>1998</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8039,51 +8036,51 @@
         <v>420</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D246" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E246" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G246" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H246" s="1" t="n">
-        <v>2002</v>
+        <v>419</v>
+      </c>
+      <c r="C246" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D246" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E246" s="8" t="n">
+        <v>112</v>
+      </c>
+      <c r="F246" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G246" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H246" s="0" t="n">
+        <v>1994</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B247" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C247" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D247" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E247" s="8" t="n">
-        <v>112</v>
-      </c>
-      <c r="F247" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G247" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H247" s="0" t="n">
-        <v>1994</v>
+      <c r="C247" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G247" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H247" s="1" t="n">
+        <v>1998</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8091,16 +8088,16 @@
         <v>423</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D248" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E248" s="1" t="n">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>11</v>
@@ -8114,28 +8111,28 @@
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="C249" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D249" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E249" s="1" t="n">
-        <v>240</v>
+        <v>57</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G249" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H249" s="1" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8143,16 +8140,16 @@
         <v>426</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D250" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E250" s="1" t="n">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>11</v>
@@ -8166,28 +8163,28 @@
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="C251" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D251" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E251" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G251" s="1" t="n">
-        <v>0</v>
+        <v>106</v>
+      </c>
+      <c r="F251" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G251" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H251" s="1" t="n">
-        <v>2001</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8198,22 +8195,22 @@
         <v>430</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D252" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E252" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="F252" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G252" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G252" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H252" s="1" t="n">
-        <v>1989</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8224,13 +8221,13 @@
         <v>432</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E253" s="1" t="n">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>11</v>
@@ -8239,7 +8236,7 @@
         <v>1</v>
       </c>
       <c r="H253" s="1" t="n">
-        <v>1990</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8247,16 +8244,16 @@
         <v>433</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D254" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E254" s="1" t="n">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>11</v>
@@ -8270,19 +8267,19 @@
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B255" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="C255" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D255" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E255" s="1" t="n">
-        <v>219</v>
+        <v>1</v>
+      </c>
+      <c r="E255" s="3" t="n">
+        <v>119</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>11</v>
@@ -8291,7 +8288,7 @@
         <v>1</v>
       </c>
       <c r="H255" s="1" t="n">
-        <v>1964</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8299,16 +8296,16 @@
         <v>436</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D256" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E256" s="3" t="n">
-        <v>119</v>
+        <v>0</v>
+      </c>
+      <c r="E256" s="1" t="n">
+        <v>184</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>11</v>
@@ -8322,19 +8319,19 @@
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B257" s="2" t="s">
-        <v>437</v>
-      </c>
       <c r="C257" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E257" s="1" t="n">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>11</v>
@@ -8343,7 +8340,7 @@
         <v>1</v>
       </c>
       <c r="H257" s="1" t="n">
-        <v>1975</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8351,16 +8348,16 @@
         <v>439</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D258" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E258" s="1" t="n">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>11</v>
@@ -8374,33 +8371,33 @@
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>441</v>
+        <v>147</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>440</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D259" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E259" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G259" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H259" s="1" t="n">
-        <v>1999</v>
+        <v>8</v>
+      </c>
+      <c r="F259" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G259" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H259" s="0" t="n">
+        <v>1994</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>149</v>
+        <v>441</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>442</v>
@@ -8409,18 +8406,18 @@
         <v>10</v>
       </c>
       <c r="D260" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E260" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="F260" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G260" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H260" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H260" s="1" t="n">
         <v>1994</v>
       </c>
     </row>
@@ -8429,16 +8426,16 @@
         <v>443</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D261" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E261" s="1" t="n">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>11</v>
@@ -8452,28 +8449,28 @@
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B262" s="2" t="s">
-        <v>444</v>
-      </c>
       <c r="C262" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D262" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E262" s="1" t="n">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G262" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H262" s="1" t="n">
-        <v>1994</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8490,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="E263" s="1" t="n">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>11</v>
@@ -8499,7 +8496,7 @@
         <v>1</v>
       </c>
       <c r="H263" s="1" t="n">
-        <v>1984</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8510,22 +8507,22 @@
         <v>449</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D264" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E264" s="1" t="n">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G264" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H264" s="1" t="n">
-        <v>1971</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8533,16 +8530,16 @@
         <v>450</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D265" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E265" s="1" t="n">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>28</v>
@@ -8556,28 +8553,28 @@
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B266" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="C266" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D266" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E266" s="1" t="n">
-        <v>232</v>
+        <v>2</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G266" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H266" s="1" t="n">
-        <v>1967</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8585,16 +8582,16 @@
         <v>453</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D267" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E267" s="1" t="n">
-        <v>2</v>
+        <v>247</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>11</v>
@@ -8608,28 +8605,28 @@
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B268" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="C268" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D268" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E268" s="1" t="n">
-        <v>247</v>
+        <v>55</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G268" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H268" s="1" t="n">
-        <v>1997</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8637,16 +8634,16 @@
         <v>456</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D269" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E269" s="1" t="n">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>28</v>
@@ -8660,28 +8657,28 @@
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>457</v>
-      </c>
       <c r="C270" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D270" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E270" s="1" t="n">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G270" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H270" s="1" t="n">
-        <v>1954</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8689,21 +8686,21 @@
         <v>459</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D271" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E271" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="F271" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G271" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="F271" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G271" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H271" s="1" t="n">
@@ -8712,11 +8709,11 @@
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B272" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="C272" s="1" t="s">
         <v>14</v>
       </c>
@@ -8724,16 +8721,16 @@
         <v>0</v>
       </c>
       <c r="E272" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="F272" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G272" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G272" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H272" s="1" t="n">
-        <v>1971</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8750,16 +8747,16 @@
         <v>0</v>
       </c>
       <c r="E273" s="1" t="n">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G273" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H273" s="1" t="n">
-        <v>1966</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8776,44 +8773,19 @@
         <v>0</v>
       </c>
       <c r="E274" s="1" t="n">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G274" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H274" s="1" t="n">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D275" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E275" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="F275" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G275" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H275" s="1" t="n">
         <v>2001</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
